--- a/UFTOneAutomationTests/APITestCreateOrder/DataQueries/WS_Flights/SampleAppData.xlsx
+++ b/UFTOneAutomationTests/APITestCreateOrder/DataQueries/WS_Flights/SampleAppData.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\UFT Tests\ufto-tests\UFTOneAutomationTests\APITestCreateOrder\DataQueries\WS_Flights\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598A489-E8C6-4B51-BD55-0993524CA6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="32595" yWindow="1425" windowWidth="23940" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>DepartureCity</t>
   </si>
@@ -96,14 +102,19 @@
   </si>
   <si>
     <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,126 +132,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Mic Shell Dlg"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,6 +180,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -580,28 +481,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.078125" style="2"/>
+    <col min="9" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,7 +531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -652,11 +553,14 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" s="3">
-        <v>196.40000000000001</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -679,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="I3" s="3">
-        <v>166.19999999999999</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>166.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -708,7 +612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -731,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>253.59999999999999</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -760,7 +664,7 @@
         <v>176.47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -786,7 +690,7 @@
         <v>163.69999999999999</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -812,7 +716,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -844,16 +748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UFTOneAutomationTests/APITestCreateOrder/DataQueries/WS_Flights/SampleAppData.xlsx
+++ b/UFTOneAutomationTests/APITestCreateOrder/DataQueries/WS_Flights/SampleAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\UFT Tests\ufto-tests\UFTOneAutomationTests\APITestCreateOrder\DataQueries\WS_Flights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598A489-E8C6-4B51-BD55-0993524CA6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B701346-8C5D-43BE-BD98-E61F26A17CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32595" yWindow="1425" windowWidth="23940" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>DepartureCity</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>qa</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,6 +585,9 @@
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" s="3">
         <v>166.2</v>
       </c>
